--- a/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/_Cas3 interference_endogenous_cas3.xlsx
+++ b/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/_Cas3 interference_endogenous_cas3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/436c92d0988cb4a1/python/RESPECTevo-Code_Rawdata/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_119C83C562D1BE6B0602390C1DE32FB8FF7F8D43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9CBD0B-6EEC-44A7-831E-83A30463BAE2}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="11_119C83C562D1BE6B0602390C1DE32FB8FF7F8D43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37310E1C-0B76-4BD8-B118-A2EF5FC186E9}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3924" windowWidth="21600" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="3132" windowWidth="21600" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>Cas3 Type</t>
   </si>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>Empty_Cascade(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cas3_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interference_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,10 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,7 +443,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -451,10 +455,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
